--- a/biology/Médecine/Intoxication_professionnelle_au_plomb/Intoxication_professionnelle_au_plomb.xlsx
+++ b/biology/Médecine/Intoxication_professionnelle_au_plomb/Intoxication_professionnelle_au_plomb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une intoxication au plomb peut être reconnue comme maladie professionnelle en France. Il s'agit d'une des plus anciennes maladies professionnelle connue (voir histoire du saturnisme). Pour la description clinique de la maladie se reporter à l'article suivant :
 </t>
@@ -511,15 +523,154 @@
           <t>Législation en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Intoxication_professionnelle_au_plomb</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_professionnelle_au_plomb</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Régime général
-Régime agricole
-Données professionnelles
-Le saturnisme aigu touchait autrefois principalement les mineurs et ouvriers de la métallurgie du plomb, ceux qui utilisaient de la vaisselle de plomb, et les ouvriers sertissant au plomb les vitraux. Mais avec l'avènement de la peinture au plomb (peintures anti-rouille), et l'essence plombée, le saturnisme est devenu très courant aux XIXe siècle et XXe siècle. C'est une des six premières maladies à avoir été déclarée maladie professionnelle en octobre 1919. Le risque était classique dans l’imprimerie (exposition des linotypistes aux vapeurs dégagées par la fonte des caractères d’imprimerie) et dans la fabrication des accumulateurs au plomb. Il a été souvent méconnu dans l’industrie de récupération des métaux et les chantiers de démolition des bateaux (découpage au chalumeau des tôles recouvertes de peinture au plomb).
-Données médicales
-Lorsque l'intoxication est légère, les symptômes permettent rarement de conduire au diagnostic de saturnisme. C’est pourquoi il est nécessaire d’évaluer l’exposition dans les situations à risque par dosages dans l’atmosphère et suivi biologique des travailleurs notamment par le dosage de la plombémie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Intoxication_professionnelle_au_plomb</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_professionnelle_au_plomb</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Intoxication_professionnelle_au_plomb</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_professionnelle_au_plomb</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le saturnisme aigu touchait autrefois principalement les mineurs et ouvriers de la métallurgie du plomb, ceux qui utilisaient de la vaisselle de plomb, et les ouvriers sertissant au plomb les vitraux. Mais avec l'avènement de la peinture au plomb (peintures anti-rouille), et l'essence plombée, le saturnisme est devenu très courant aux XIXe siècle et XXe siècle. C'est une des six premières maladies à avoir été déclarée maladie professionnelle en octobre 1919. Le risque était classique dans l’imprimerie (exposition des linotypistes aux vapeurs dégagées par la fonte des caractères d’imprimerie) et dans la fabrication des accumulateurs au plomb. Il a été souvent méconnu dans l’industrie de récupération des métaux et les chantiers de démolition des bateaux (découpage au chalumeau des tôles recouvertes de peinture au plomb).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Intoxication_professionnelle_au_plomb</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_professionnelle_au_plomb</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lorsque l'intoxication est légère, les symptômes permettent rarement de conduire au diagnostic de saturnisme. C’est pourquoi il est nécessaire d’évaluer l’exposition dans les situations à risque par dosages dans l’atmosphère et suivi biologique des travailleurs notamment par le dosage de la plombémie.
 Avec l'augmentation du taux de plomb dans l'organisme, les symptômes suivants apparaissent : 
 Nausées, vomissements, diarrhées/constipation, maux de tête, avec fréquente perte d'appétit et de poids ;
 Apparition d'un goût métallique dans la cavité buccale, éventuellement suivi dans les cas d'intoxication forte d'apparition d'un liseré grisâtre ou  bleuâtre sur les gencives, dit "«liseré de Burton »" (très rare chez le jeune enfant, plus fréquent chez l'adulte gravement intoxiqué).
@@ -536,9 +687,43 @@
 Perte auditive ;
 Hyperuricémie (accumulation d'acide urique à la suite d'une excrétion insuffisante dans l'urine);
 Cancers (induit par certaines formes chimiques du plomb);
-Coma puis mort, généralement provoquée par une encéphalite.
-Prévention
-Réduire les risques de saturnisme nécessite des actions à la fois individuelles et collectives, incluant un contrôle des sources de pollutions et une évaluation de tous les risques d’exposition.
+Coma puis mort, généralement provoquée par une encéphalite.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Intoxication_professionnelle_au_plomb</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_professionnelle_au_plomb</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prévention</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réduire les risques de saturnisme nécessite des actions à la fois individuelles et collectives, incluant un contrôle des sources de pollutions et une évaluation de tous les risques d’exposition.
 L’absorption peut se faire par inhalation de vapeurs lorsque le métal est porté à une température suffisante pour que le métal soit vaporisé. Notons que la soudure à l’étain (métal d’apport constitué d’un alliage de plomb et d’étain), souvent utilisée dans l’industrie électronique, n’expose pas à ce risque puisque la température de fusion de l’alliage est inférieure à la température de fusion du plomb. 
 Le plomb peut aussi être absorbé par voie digestive en l'absence de précautions d'hygiène élémentaires. C'est pour cette raison qu'il est interdit de boire, manger ou fumer dans des locaux professionnels où l'on manipule du plomb.
 Actuellement le risque professionnel est théoriquement bien maîtrisé dans l’industrie surtout depuis l'interdiction du plomb dans les peintures et l'essence dans de nombreux pays mais beaucoup moins dans les expositions occasionnelles dans les activités artisanales.
